--- a/results/example_data/best_fit.xlsx
+++ b/results/example_data/best_fit.xlsx
@@ -1951,7 +1951,7 @@
         <v>0.973</v>
       </c>
       <c r="E6" t="n">
-        <v>0.944</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -1965,7 +1965,7 @@
         <v>0.988</v>
       </c>
       <c r="D7" t="n">
-        <v>0.97</v>
+        <v>0.969</v>
       </c>
       <c r="E7" t="n">
         <v>0.9370000000000001</v>
@@ -2013,7 +2013,7 @@
         <v>0.995</v>
       </c>
       <c r="C10" t="n">
-        <v>0.982</v>
+        <v>0.981</v>
       </c>
       <c r="D10" t="n">
         <v>0.953</v>
@@ -2087,7 +2087,7 @@
         <v>0.897</v>
       </c>
       <c r="E14" t="n">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="15">
@@ -2104,7 +2104,7 @@
         <v>0.87</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -2118,10 +2118,10 @@
         <v>0.897</v>
       </c>
       <c r="D16" t="n">
-        <v>0.836</v>
+        <v>0.837</v>
       </c>
       <c r="E16" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="17">
@@ -2129,16 +2129,16 @@
         <v>3.75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.925</v>
+        <v>0.926</v>
       </c>
       <c r="C17" t="n">
-        <v>0.848</v>
+        <v>0.849</v>
       </c>
       <c r="D17" t="n">
-        <v>0.798</v>
+        <v>0.8</v>
       </c>
       <c r="E17" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="18">
@@ -2146,16 +2146,16 @@
         <v>3.6</v>
       </c>
       <c r="B18" t="n">
-        <v>0.853</v>
+        <v>0.855</v>
       </c>
       <c r="C18" t="n">
-        <v>0.795</v>
+        <v>0.797</v>
       </c>
       <c r="D18" t="n">
-        <v>0.765</v>
+        <v>0.768</v>
       </c>
       <c r="E18" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="19">
@@ -2163,16 +2163,16 @@
         <v>3.45</v>
       </c>
       <c r="B19" t="n">
-        <v>0.822</v>
+        <v>0.825</v>
       </c>
       <c r="C19" t="n">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="D19" t="n">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="E19" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="20">
@@ -2180,16 +2180,16 @@
         <v>3.3</v>
       </c>
       <c r="B20" t="n">
-        <v>0.887</v>
+        <v>0.888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="D20" t="n">
-        <v>0.751</v>
+        <v>0.754</v>
       </c>
       <c r="E20" t="n">
-        <v>0.711</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="21">
@@ -2200,13 +2200,13 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.842</v>
+        <v>0.843</v>
       </c>
       <c r="D21" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="E21" t="n">
-        <v>0.71</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="22">
@@ -2217,13 +2217,13 @@
         <v>0.957</v>
       </c>
       <c r="C22" t="n">
-        <v>0.876</v>
+        <v>0.877</v>
       </c>
       <c r="D22" t="n">
-        <v>0.787</v>
+        <v>0.789</v>
       </c>
       <c r="E22" t="n">
-        <v>0.713</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="23">
@@ -2237,10 +2237,10 @@
         <v>0.899</v>
       </c>
       <c r="D23" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="24">
@@ -2257,7 +2257,7 @@
         <v>0.82</v>
       </c>
       <c r="E24" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="25">
@@ -2305,7 +2305,7 @@
         <v>0.929</v>
       </c>
       <c r="D27" t="n">
-        <v>0.834</v>
+        <v>0.833</v>
       </c>
       <c r="E27" t="n">
         <v>0.712</v>
@@ -2370,7 +2370,7 @@
         <v>0.976</v>
       </c>
       <c r="C31" t="n">
-        <v>0.913</v>
+        <v>0.912</v>
       </c>
       <c r="D31" t="n">
         <v>0.793</v>
@@ -2390,7 +2390,7 @@
         <v>0.902</v>
       </c>
       <c r="D32" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="E32" t="n">
         <v>0.605</v>
@@ -2407,7 +2407,7 @@
         <v>0.887</v>
       </c>
       <c r="D33" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="E33" t="n">
         <v>0.5639999999999999</v>
@@ -2421,10 +2421,10 @@
         <v>0.963</v>
       </c>
       <c r="C34" t="n">
-        <v>0.867</v>
+        <v>0.866</v>
       </c>
       <c r="D34" t="n">
-        <v>0.702</v>
+        <v>0.701</v>
       </c>
       <c r="E34" t="n">
         <v>0.515</v>
@@ -2438,7 +2438,7 @@
         <v>0.954</v>
       </c>
       <c r="C35" t="n">
-        <v>0.838</v>
+        <v>0.837</v>
       </c>
       <c r="D35" t="n">
         <v>0.651</v>
@@ -2455,10 +2455,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="D36" t="n">
-        <v>0.586</v>
+        <v>0.585</v>
       </c>
       <c r="E36" t="n">
         <v>0.388</v>
@@ -2472,10 +2472,10 @@
         <v>0.918</v>
       </c>
       <c r="C37" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="D37" t="n">
-        <v>0.502</v>
+        <v>0.501</v>
       </c>
       <c r="E37" t="n">
         <v>0.311</v>
@@ -2489,13 +2489,13 @@
         <v>0.88</v>
       </c>
       <c r="C38" t="n">
-        <v>0.647</v>
+        <v>0.646</v>
       </c>
       <c r="D38" t="n">
-        <v>0.398</v>
+        <v>0.397</v>
       </c>
       <c r="E38" t="n">
-        <v>0.228</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="39">
@@ -2503,13 +2503,13 @@
         <v>0.45</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.513</v>
+        <v>0.512</v>
       </c>
       <c r="D39" t="n">
-        <v>0.275</v>
+        <v>0.274</v>
       </c>
       <c r="E39" t="n">
         <v>0.144</v>
@@ -2520,10 +2520,10 @@
         <v>0.3</v>
       </c>
       <c r="B40" t="n">
-        <v>0.656</v>
+        <v>0.655</v>
       </c>
       <c r="C40" t="n">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="D40" t="n">
         <v>0.146</v>
@@ -2537,10 +2537,10 @@
         <v>0.15</v>
       </c>
       <c r="B41" t="n">
-        <v>0.326</v>
+        <v>0.325</v>
       </c>
       <c r="C41" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="D41" t="n">
         <v>0.042</v>
@@ -2571,16 +2571,16 @@
         <v>-0.15</v>
       </c>
       <c r="B43" t="n">
-        <v>0.332</v>
+        <v>0.331</v>
       </c>
       <c r="C43" t="n">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
       <c r="D43" t="n">
         <v>0.043</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="44">
@@ -2588,16 +2588,16 @@
         <v>-0.3</v>
       </c>
       <c r="B44" t="n">
-        <v>0.669</v>
+        <v>0.668</v>
       </c>
       <c r="C44" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="D44" t="n">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="E44" t="n">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="45">
@@ -2605,13 +2605,13 @@
         <v>-0.45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.822</v>
+        <v>0.821</v>
       </c>
       <c r="C45" t="n">
-        <v>0.535</v>
+        <v>0.533</v>
       </c>
       <c r="D45" t="n">
-        <v>0.292</v>
+        <v>0.291</v>
       </c>
       <c r="E45" t="n">
         <v>0.155</v>
@@ -2625,13 +2625,13 @@
         <v>0.892</v>
       </c>
       <c r="C46" t="n">
-        <v>0.674</v>
+        <v>0.673</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="E46" t="n">
-        <v>0.248</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="47">
@@ -2642,13 +2642,13 @@
         <v>0.929</v>
       </c>
       <c r="C47" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="D47" t="n">
-        <v>0.539</v>
+        <v>0.538</v>
       </c>
       <c r="E47" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="48">
@@ -2659,13 +2659,13 @@
         <v>0.95</v>
       </c>
       <c r="C48" t="n">
-        <v>0.826</v>
+        <v>0.825</v>
       </c>
       <c r="D48" t="n">
-        <v>0.63</v>
+        <v>0.629</v>
       </c>
       <c r="E48" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="49">
@@ -2679,10 +2679,10 @@
         <v>0.866</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7</v>
+        <v>0.699</v>
       </c>
       <c r="E49" t="n">
-        <v>0.509</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="50">
@@ -2690,16 +2690,16 @@
         <v>-1.2</v>
       </c>
       <c r="B50" t="n">
-        <v>0.972</v>
+        <v>0.971</v>
       </c>
       <c r="C50" t="n">
         <v>0.895</v>
       </c>
       <c r="D50" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="E50" t="n">
-        <v>0.577</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="51">
@@ -2707,16 +2707,16 @@
         <v>-1.35</v>
       </c>
       <c r="B51" t="n">
-        <v>0.978</v>
+        <v>0.977</v>
       </c>
       <c r="C51" t="n">
-        <v>0.916</v>
+        <v>0.915</v>
       </c>
       <c r="D51" t="n">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="E51" t="n">
-        <v>0.634</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="52">
@@ -2730,10 +2730,10 @@
         <v>0.931</v>
       </c>
       <c r="D52" t="n">
-        <v>0.829</v>
+        <v>0.828</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -2747,10 +2747,10 @@
         <v>0.9419999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.855</v>
+        <v>0.854</v>
       </c>
       <c r="E53" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="54">
@@ -2764,10 +2764,10 @@
         <v>0.951</v>
       </c>
       <c r="D54" t="n">
-        <v>0.876</v>
+        <v>0.875</v>
       </c>
       <c r="E54" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="55">
@@ -2784,7 +2784,7 @@
         <v>0.892</v>
       </c>
       <c r="E55" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="56">
@@ -2801,7 +2801,7 @@
         <v>0.906</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -2815,10 +2815,10 @@
         <v>0.969</v>
       </c>
       <c r="D57" t="n">
-        <v>0.918</v>
+        <v>0.917</v>
       </c>
       <c r="E57" t="n">
-        <v>0.832</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="58">
@@ -2846,13 +2846,13 @@
         <v>0.994</v>
       </c>
       <c r="C59" t="n">
-        <v>0.976</v>
+        <v>0.975</v>
       </c>
       <c r="D59" t="n">
         <v>0.9350000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.865</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="60">
@@ -2866,10 +2866,10 @@
         <v>0.978</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.878</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="61">
@@ -2920,7 +2920,7 @@
         <v>0.957</v>
       </c>
       <c r="E63" t="n">
-        <v>0.908</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="64">
@@ -2934,7 +2934,7 @@
         <v>0.985</v>
       </c>
       <c r="D64" t="n">
-        <v>0.961</v>
+        <v>0.96</v>
       </c>
       <c r="E64" t="n">
         <v>0.915</v>
@@ -3002,7 +3002,7 @@
         <v>0.99</v>
       </c>
       <c r="D68" t="n">
-        <v>0.972</v>
+        <v>0.971</v>
       </c>
       <c r="E68" t="n">
         <v>0.9379999999999999</v>
@@ -3022,7 +3022,7 @@
         <v>0.974</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -3070,7 +3070,7 @@
         <v>0.992</v>
       </c>
       <c r="D72" t="n">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
       <c r="E72" t="n">
         <v>0.953</v>
@@ -3107,7 +3107,7 @@
         <v>0.981</v>
       </c>
       <c r="E74" t="n">
-        <v>0.959</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="75">
@@ -3306,7 +3306,7 @@
         <v>0.98</v>
       </c>
       <c r="E3" t="n">
-        <v>0.958</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="4">
@@ -3340,7 +3340,7 @@
         <v>0.976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.95</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="6">
@@ -3408,7 +3408,7 @@
         <v>0.961</v>
       </c>
       <c r="E9" t="n">
-        <v>0.923</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="10">
@@ -3422,7 +3422,7 @@
         <v>0.982</v>
       </c>
       <c r="D10" t="n">
-        <v>0.955</v>
+        <v>0.954</v>
       </c>
       <c r="E10" t="n">
         <v>0.912</v>
@@ -3450,10 +3450,10 @@
         <v>4.5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.993</v>
+        <v>0.992</v>
       </c>
       <c r="C12" t="n">
-        <v>0.973</v>
+        <v>0.972</v>
       </c>
       <c r="D12" t="n">
         <v>0.9350000000000001</v>
@@ -3510,7 +3510,7 @@
         <v>0.874</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="16">
@@ -3518,16 +3518,16 @@
         <v>3.9</v>
       </c>
       <c r="B16" t="n">
-        <v>0.963</v>
+        <v>0.962</v>
       </c>
       <c r="C16" t="n">
         <v>0.9</v>
       </c>
       <c r="D16" t="n">
-        <v>0.84</v>
+        <v>0.841</v>
       </c>
       <c r="E16" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="17">
@@ -3538,13 +3538,13 @@
         <v>0.928</v>
       </c>
       <c r="C17" t="n">
-        <v>0.853</v>
+        <v>0.854</v>
       </c>
       <c r="D17" t="n">
-        <v>0.804</v>
+        <v>0.805</v>
       </c>
       <c r="E17" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="18">
@@ -3552,16 +3552,16 @@
         <v>3.6</v>
       </c>
       <c r="B18" t="n">
-        <v>0.858</v>
+        <v>0.86</v>
       </c>
       <c r="C18" t="n">
-        <v>0.801</v>
+        <v>0.803</v>
       </c>
       <c r="D18" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="E18" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="19">
@@ -3569,16 +3569,16 @@
         <v>3.45</v>
       </c>
       <c r="B19" t="n">
-        <v>0.829</v>
+        <v>0.831</v>
       </c>
       <c r="C19" t="n">
-        <v>0.781</v>
+        <v>0.783</v>
       </c>
       <c r="D19" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="E19" t="n">
-        <v>0.726</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="20">
@@ -3586,16 +3586,16 @@
         <v>3.3</v>
       </c>
       <c r="B20" t="n">
-        <v>0.891</v>
+        <v>0.892</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="E20" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="21">
@@ -3606,13 +3606,13 @@
         <v>0.9370000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.847</v>
+        <v>0.848</v>
       </c>
       <c r="D21" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="E21" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="22">
@@ -3626,10 +3626,10 @@
         <v>0.88</v>
       </c>
       <c r="D22" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="E22" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="23">
@@ -3637,7 +3637,7 @@
         <v>2.85</v>
       </c>
       <c r="B23" t="n">
-        <v>0.97</v>
+        <v>0.969</v>
       </c>
       <c r="C23" t="n">
         <v>0.902</v>
@@ -3646,7 +3646,7 @@
         <v>0.8110000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="24">
@@ -3663,7 +3663,7 @@
         <v>0.824</v>
       </c>
       <c r="E24" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="25">
@@ -3677,7 +3677,7 @@
         <v>0.924</v>
       </c>
       <c r="D25" t="n">
-        <v>0.833</v>
+        <v>0.832</v>
       </c>
       <c r="E25" t="n">
         <v>0.726</v>
@@ -3691,10 +3691,10 @@
         <v>0.98</v>
       </c>
       <c r="C26" t="n">
-        <v>0.929</v>
+        <v>0.928</v>
       </c>
       <c r="D26" t="n">
-        <v>0.837</v>
+        <v>0.836</v>
       </c>
       <c r="E26" t="n">
         <v>0.723</v>
@@ -3711,7 +3711,7 @@
         <v>0.93</v>
       </c>
       <c r="D27" t="n">
-        <v>0.837</v>
+        <v>0.836</v>
       </c>
       <c r="E27" t="n">
         <v>0.716</v>
@@ -3725,10 +3725,10 @@
         <v>0.981</v>
       </c>
       <c r="C28" t="n">
-        <v>0.93</v>
+        <v>0.929</v>
       </c>
       <c r="D28" t="n">
-        <v>0.833</v>
+        <v>0.832</v>
       </c>
       <c r="E28" t="n">
         <v>0.705</v>
@@ -3742,10 +3742,10 @@
         <v>0.98</v>
       </c>
       <c r="C29" t="n">
-        <v>0.927</v>
+        <v>0.926</v>
       </c>
       <c r="D29" t="n">
-        <v>0.825</v>
+        <v>0.824</v>
       </c>
       <c r="E29" t="n">
         <v>0.6889999999999999</v>
@@ -3759,10 +3759,10 @@
         <v>0.979</v>
       </c>
       <c r="C30" t="n">
-        <v>0.922</v>
+        <v>0.921</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="E30" t="n">
         <v>0.668</v>
@@ -3779,10 +3779,10 @@
         <v>0.914</v>
       </c>
       <c r="D31" t="n">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="E31" t="n">
-        <v>0.642</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="32">
@@ -3796,7 +3796,7 @@
         <v>0.903</v>
       </c>
       <c r="D32" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="E32" t="n">
         <v>0.608</v>
@@ -3813,7 +3813,7 @@
         <v>0.888</v>
       </c>
       <c r="D33" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="E33" t="n">
         <v>0.5669999999999999</v>
@@ -3827,13 +3827,13 @@
         <v>0.963</v>
       </c>
       <c r="C34" t="n">
-        <v>0.868</v>
+        <v>0.867</v>
       </c>
       <c r="D34" t="n">
         <v>0.704</v>
       </c>
       <c r="E34" t="n">
-        <v>0.518</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="35">
@@ -3847,10 +3847,10 @@
         <v>0.839</v>
       </c>
       <c r="D35" t="n">
-        <v>0.654</v>
+        <v>0.653</v>
       </c>
       <c r="E35" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="36">
@@ -3858,13 +3858,13 @@
         <v>0.9</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>0.798</v>
       </c>
       <c r="D36" t="n">
-        <v>0.588</v>
+        <v>0.587</v>
       </c>
       <c r="E36" t="n">
         <v>0.39</v>
@@ -3875,16 +3875,16 @@
         <v>0.75</v>
       </c>
       <c r="B37" t="n">
-        <v>0.919</v>
+        <v>0.918</v>
       </c>
       <c r="C37" t="n">
-        <v>0.739</v>
+        <v>0.738</v>
       </c>
       <c r="D37" t="n">
-        <v>0.505</v>
+        <v>0.504</v>
       </c>
       <c r="E37" t="n">
-        <v>0.313</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="38">
@@ -3895,10 +3895,10 @@
         <v>0.881</v>
       </c>
       <c r="C38" t="n">
-        <v>0.649</v>
+        <v>0.648</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="E38" t="n">
         <v>0.229</v>
@@ -3909,10 +3909,10 @@
         <v>0.45</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.515</v>
+        <v>0.514</v>
       </c>
       <c r="D39" t="n">
         <v>0.276</v>
@@ -3926,10 +3926,10 @@
         <v>0.3</v>
       </c>
       <c r="B40" t="n">
-        <v>0.658</v>
+        <v>0.657</v>
       </c>
       <c r="C40" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="D40" t="n">
         <v>0.147</v>
@@ -3943,7 +3943,7 @@
         <v>0.15</v>
       </c>
       <c r="B41" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="C41" t="n">
         <v>0.108</v>
@@ -3977,7 +3977,7 @@
         <v>-0.15</v>
       </c>
       <c r="B43" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="C43" t="n">
         <v>0.111</v>
@@ -3994,10 +3994,10 @@
         <v>-0.3</v>
       </c>
       <c r="B44" t="n">
-        <v>0.671</v>
+        <v>0.669</v>
       </c>
       <c r="C44" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="D44" t="n">
         <v>0.154</v>
@@ -4011,16 +4011,16 @@
         <v>-0.45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.823</v>
+        <v>0.822</v>
       </c>
       <c r="C45" t="n">
-        <v>0.536</v>
+        <v>0.535</v>
       </c>
       <c r="D45" t="n">
-        <v>0.293</v>
+        <v>0.292</v>
       </c>
       <c r="E45" t="n">
-        <v>0.156</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="46">
@@ -4028,16 +4028,16 @@
         <v>-0.6</v>
       </c>
       <c r="B46" t="n">
-        <v>0.893</v>
+        <v>0.892</v>
       </c>
       <c r="C46" t="n">
-        <v>0.675</v>
+        <v>0.674</v>
       </c>
       <c r="D46" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="E46" t="n">
-        <v>0.249</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="47">
@@ -4048,13 +4048,13 @@
         <v>0.929</v>
       </c>
       <c r="C47" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="D47" t="n">
-        <v>0.541</v>
+        <v>0.539</v>
       </c>
       <c r="E47" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="48">
@@ -4065,13 +4065,13 @@
         <v>0.95</v>
       </c>
       <c r="C48" t="n">
-        <v>0.826</v>
+        <v>0.825</v>
       </c>
       <c r="D48" t="n">
-        <v>0.631</v>
+        <v>0.63</v>
       </c>
       <c r="E48" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="49">
@@ -4082,13 +4082,13 @@
         <v>0.963</v>
       </c>
       <c r="C49" t="n">
-        <v>0.867</v>
+        <v>0.866</v>
       </c>
       <c r="D49" t="n">
-        <v>0.701</v>
+        <v>0.7</v>
       </c>
       <c r="E49" t="n">
-        <v>0.51</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="50">
@@ -4102,10 +4102,10 @@
         <v>0.895</v>
       </c>
       <c r="D50" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="E50" t="n">
-        <v>0.578</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="51">
@@ -4113,16 +4113,16 @@
         <v>-1.35</v>
       </c>
       <c r="B51" t="n">
-        <v>0.978</v>
+        <v>0.977</v>
       </c>
       <c r="C51" t="n">
         <v>0.916</v>
       </c>
       <c r="D51" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="E51" t="n">
-        <v>0.635</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="52">
@@ -4139,7 +4139,7 @@
         <v>0.829</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -4150,13 +4150,13 @@
         <v>0.985</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D53" t="n">
         <v>0.855</v>
       </c>
       <c r="E53" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="54">
@@ -4167,13 +4167,13 @@
         <v>0.987</v>
       </c>
       <c r="C54" t="n">
-        <v>0.952</v>
+        <v>0.951</v>
       </c>
       <c r="D54" t="n">
         <v>0.876</v>
       </c>
       <c r="E54" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="55">
@@ -4184,13 +4184,13 @@
         <v>0.989</v>
       </c>
       <c r="C55" t="n">
-        <v>0.959</v>
+        <v>0.958</v>
       </c>
       <c r="D55" t="n">
-        <v>0.893</v>
+        <v>0.892</v>
       </c>
       <c r="E55" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="56">
@@ -4221,10 +4221,10 @@
         <v>0.969</v>
       </c>
       <c r="D57" t="n">
-        <v>0.918</v>
+        <v>0.917</v>
       </c>
       <c r="E57" t="n">
-        <v>0.832</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="58">
@@ -4235,13 +4235,13 @@
         <v>0.993</v>
       </c>
       <c r="C58" t="n">
-        <v>0.973</v>
+        <v>0.972</v>
       </c>
       <c r="D58" t="n">
         <v>0.927</v>
       </c>
       <c r="E58" t="n">
-        <v>0.85</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="59">
@@ -4258,7 +4258,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.865</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="60">
@@ -4275,7 +4275,7 @@
         <v>0.9419999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.878</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="61">
@@ -4289,7 +4289,7 @@
         <v>0.98</v>
       </c>
       <c r="D61" t="n">
-        <v>0.948</v>
+        <v>0.947</v>
       </c>
       <c r="E61" t="n">
         <v>0.889</v>
@@ -4306,7 +4306,7 @@
         <v>0.982</v>
       </c>
       <c r="D62" t="n">
-        <v>0.953</v>
+        <v>0.952</v>
       </c>
       <c r="E62" t="n">
         <v>0.899</v>
@@ -4326,7 +4326,7 @@
         <v>0.957</v>
       </c>
       <c r="E63" t="n">
-        <v>0.908</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="64">
@@ -4340,7 +4340,7 @@
         <v>0.985</v>
       </c>
       <c r="D64" t="n">
-        <v>0.961</v>
+        <v>0.96</v>
       </c>
       <c r="E64" t="n">
         <v>0.915</v>
@@ -4394,7 +4394,7 @@
         <v>0.969</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4428,7 +4428,7 @@
         <v>0.974</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4445,7 +4445,7 @@
         <v>0.975</v>
       </c>
       <c r="E70" t="n">
-        <v>0.947</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="71">
@@ -4513,7 +4513,7 @@
         <v>0.981</v>
       </c>
       <c r="E74" t="n">
-        <v>0.959</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="75">
@@ -4695,7 +4695,7 @@
         <v>0.982</v>
       </c>
       <c r="E2" t="n">
-        <v>0.962</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="3">
@@ -4709,7 +4709,7 @@
         <v>0.993</v>
       </c>
       <c r="D3" t="n">
-        <v>0.981</v>
+        <v>0.98</v>
       </c>
       <c r="E3" t="n">
         <v>0.958</v>
@@ -4726,10 +4726,10 @@
         <v>0.992</v>
       </c>
       <c r="D4" t="n">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
       <c r="E4" t="n">
-        <v>0.955</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="5">
@@ -4743,10 +4743,10 @@
         <v>0.991</v>
       </c>
       <c r="D5" t="n">
-        <v>0.977</v>
+        <v>0.976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.951</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
@@ -4754,7 +4754,7 @@
         <v>5.4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
       <c r="C6" t="n">
         <v>0.99</v>
@@ -4763,7 +4763,7 @@
         <v>0.974</v>
       </c>
       <c r="E6" t="n">
-        <v>0.946</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="7">
@@ -4777,10 +4777,10 @@
         <v>0.989</v>
       </c>
       <c r="D7" t="n">
-        <v>0.971</v>
+        <v>0.97</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4794,10 +4794,10 @@
         <v>0.987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.967</v>
+        <v>0.966</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4811,10 +4811,10 @@
         <v>0.985</v>
       </c>
       <c r="D9" t="n">
-        <v>0.962</v>
+        <v>0.961</v>
       </c>
       <c r="E9" t="n">
-        <v>0.925</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="10">
@@ -4825,13 +4825,13 @@
         <v>0.995</v>
       </c>
       <c r="C10" t="n">
-        <v>0.983</v>
+        <v>0.982</v>
       </c>
       <c r="D10" t="n">
-        <v>0.956</v>
+        <v>0.955</v>
       </c>
       <c r="E10" t="n">
-        <v>0.914</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="11">
@@ -4842,13 +4842,13 @@
         <v>0.994</v>
       </c>
       <c r="C11" t="n">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
       <c r="D11" t="n">
-        <v>0.948</v>
+        <v>0.947</v>
       </c>
       <c r="E11" t="n">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12">
@@ -4862,10 +4862,10 @@
         <v>0.973</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.887</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="13">
@@ -4876,13 +4876,13 @@
         <v>0.99</v>
       </c>
       <c r="C13" t="n">
-        <v>0.966</v>
+        <v>0.965</v>
       </c>
       <c r="D13" t="n">
-        <v>0.923</v>
+        <v>0.921</v>
       </c>
       <c r="E13" t="n">
-        <v>0.869</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="14">
@@ -4893,13 +4893,13 @@
         <v>0.986</v>
       </c>
       <c r="C14" t="n">
-        <v>0.954</v>
+        <v>0.952</v>
       </c>
       <c r="D14" t="n">
-        <v>0.903</v>
+        <v>0.901</v>
       </c>
       <c r="E14" t="n">
-        <v>0.848</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="15">
@@ -4907,16 +4907,16 @@
         <v>4.05</v>
       </c>
       <c r="B15" t="n">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.878</v>
+        <v>0.876</v>
       </c>
       <c r="E15" t="n">
-        <v>0.824</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="16">
@@ -4924,16 +4924,16 @@
         <v>3.9</v>
       </c>
       <c r="B16" t="n">
-        <v>0.964</v>
+        <v>0.963</v>
       </c>
       <c r="C16" t="n">
-        <v>0.904</v>
+        <v>0.902</v>
       </c>
       <c r="D16" t="n">
-        <v>0.846</v>
+        <v>0.844</v>
       </c>
       <c r="E16" t="n">
-        <v>0.797</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="17">
@@ -4941,16 +4941,16 @@
         <v>3.75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.931</v>
+        <v>0.93</v>
       </c>
       <c r="C17" t="n">
-        <v>0.859</v>
+        <v>0.857</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="18">
@@ -4958,16 +4958,16 @@
         <v>3.6</v>
       </c>
       <c r="B18" t="n">
-        <v>0.865</v>
+        <v>0.863</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="E18" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="19">
@@ -4975,16 +4975,16 @@
         <v>3.45</v>
       </c>
       <c r="B19" t="n">
-        <v>0.836</v>
+        <v>0.835</v>
       </c>
       <c r="C19" t="n">
-        <v>0.789</v>
+        <v>0.787</v>
       </c>
       <c r="D19" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="E19" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="20">
@@ -4992,16 +4992,16 @@
         <v>3.3</v>
       </c>
       <c r="B20" t="n">
-        <v>0.896</v>
+        <v>0.894</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="E20" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="21">
@@ -5009,16 +5009,16 @@
         <v>3.15</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.853</v>
+        <v>0.851</v>
       </c>
       <c r="D21" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="E21" t="n">
-        <v>0.724</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="22">
@@ -5026,16 +5026,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>0.96</v>
+        <v>0.959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.885</v>
+        <v>0.882</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="E22" t="n">
-        <v>0.726</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="23">
@@ -5043,16 +5043,16 @@
         <v>2.85</v>
       </c>
       <c r="B23" t="n">
-        <v>0.971</v>
+        <v>0.97</v>
       </c>
       <c r="C23" t="n">
-        <v>0.906</v>
+        <v>0.904</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.729</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="24">
@@ -5063,13 +5063,13 @@
         <v>0.976</v>
       </c>
       <c r="C24" t="n">
-        <v>0.919</v>
+        <v>0.917</v>
       </c>
       <c r="D24" t="n">
-        <v>0.829</v>
+        <v>0.827</v>
       </c>
       <c r="E24" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="25">
@@ -5080,13 +5080,13 @@
         <v>0.979</v>
       </c>
       <c r="C25" t="n">
-        <v>0.927</v>
+        <v>0.925</v>
       </c>
       <c r="D25" t="n">
-        <v>0.837</v>
+        <v>0.835</v>
       </c>
       <c r="E25" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="26">
@@ -5097,13 +5097,13 @@
         <v>0.981</v>
       </c>
       <c r="C26" t="n">
-        <v>0.931</v>
+        <v>0.929</v>
       </c>
       <c r="D26" t="n">
-        <v>0.841</v>
+        <v>0.839</v>
       </c>
       <c r="E26" t="n">
-        <v>0.728</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="27">
@@ -5111,16 +5111,16 @@
         <v>2.25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.982</v>
+        <v>0.981</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.931</v>
       </c>
       <c r="D27" t="n">
-        <v>0.841</v>
+        <v>0.838</v>
       </c>
       <c r="E27" t="n">
-        <v>0.721</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="28">
@@ -5128,16 +5128,16 @@
         <v>2.1</v>
       </c>
       <c r="B28" t="n">
-        <v>0.982</v>
+        <v>0.981</v>
       </c>
       <c r="C28" t="n">
-        <v>0.931</v>
+        <v>0.93</v>
       </c>
       <c r="D28" t="n">
-        <v>0.836</v>
+        <v>0.834</v>
       </c>
       <c r="E28" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="29">
@@ -5145,16 +5145,16 @@
         <v>1.95</v>
       </c>
       <c r="B29" t="n">
-        <v>0.981</v>
+        <v>0.98</v>
       </c>
       <c r="C29" t="n">
-        <v>0.928</v>
+        <v>0.927</v>
       </c>
       <c r="D29" t="n">
-        <v>0.828</v>
+        <v>0.826</v>
       </c>
       <c r="E29" t="n">
-        <v>0.694</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -5165,13 +5165,13 @@
         <v>0.979</v>
       </c>
       <c r="C30" t="n">
-        <v>0.923</v>
+        <v>0.922</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.673</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="31">
@@ -5182,13 +5182,13 @@
         <v>0.977</v>
       </c>
       <c r="C31" t="n">
-        <v>0.916</v>
+        <v>0.914</v>
       </c>
       <c r="D31" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="E31" t="n">
-        <v>0.646</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="32">
@@ -5199,13 +5199,13 @@
         <v>0.974</v>
       </c>
       <c r="C32" t="n">
-        <v>0.905</v>
+        <v>0.904</v>
       </c>
       <c r="D32" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="E32" t="n">
-        <v>0.612</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="33">
@@ -5216,13 +5216,13 @@
         <v>0.97</v>
       </c>
       <c r="C33" t="n">
-        <v>0.89</v>
+        <v>0.889</v>
       </c>
       <c r="D33" t="n">
-        <v>0.746</v>
+        <v>0.744</v>
       </c>
       <c r="E33" t="n">
-        <v>0.571</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="34">
@@ -5230,16 +5230,16 @@
         <v>1.2</v>
       </c>
       <c r="B34" t="n">
-        <v>0.964</v>
+        <v>0.963</v>
       </c>
       <c r="C34" t="n">
-        <v>0.87</v>
+        <v>0.868</v>
       </c>
       <c r="D34" t="n">
-        <v>0.707</v>
+        <v>0.705</v>
       </c>
       <c r="E34" t="n">
-        <v>0.521</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="35">
@@ -5247,16 +5247,16 @@
         <v>1.05</v>
       </c>
       <c r="B35" t="n">
-        <v>0.955</v>
+        <v>0.954</v>
       </c>
       <c r="C35" t="n">
-        <v>0.841</v>
+        <v>0.84</v>
       </c>
       <c r="D35" t="n">
-        <v>0.657</v>
+        <v>0.654</v>
       </c>
       <c r="E35" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="36">
@@ -5267,13 +5267,13 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="D36" t="n">
-        <v>0.591</v>
+        <v>0.589</v>
       </c>
       <c r="E36" t="n">
-        <v>0.393</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="37">
@@ -5281,16 +5281,16 @@
         <v>0.75</v>
       </c>
       <c r="B37" t="n">
-        <v>0.92</v>
+        <v>0.919</v>
       </c>
       <c r="C37" t="n">
-        <v>0.741</v>
+        <v>0.739</v>
       </c>
       <c r="D37" t="n">
-        <v>0.507</v>
+        <v>0.505</v>
       </c>
       <c r="E37" t="n">
-        <v>0.315</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="38">
@@ -5298,16 +5298,16 @@
         <v>0.6</v>
       </c>
       <c r="B38" t="n">
-        <v>0.882</v>
+        <v>0.881</v>
       </c>
       <c r="C38" t="n">
-        <v>0.651</v>
+        <v>0.649</v>
       </c>
       <c r="D38" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="E38" t="n">
-        <v>0.231</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="39">
@@ -5315,16 +5315,16 @@
         <v>0.45</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.517</v>
+        <v>0.515</v>
       </c>
       <c r="D39" t="n">
-        <v>0.278</v>
+        <v>0.276</v>
       </c>
       <c r="E39" t="n">
-        <v>0.147</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="40">
@@ -5332,13 +5332,13 @@
         <v>0.3</v>
       </c>
       <c r="B40" t="n">
-        <v>0.66</v>
+        <v>0.658</v>
       </c>
       <c r="C40" t="n">
-        <v>0.326</v>
+        <v>0.324</v>
       </c>
       <c r="D40" t="n">
-        <v>0.148</v>
+        <v>0.147</v>
       </c>
       <c r="E40" t="n">
         <v>0.07199999999999999</v>
@@ -5349,10 +5349,10 @@
         <v>0.15</v>
       </c>
       <c r="B41" t="n">
-        <v>0.329</v>
+        <v>0.327</v>
       </c>
       <c r="C41" t="n">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
       <c r="D41" t="n">
         <v>0.042</v>
@@ -5383,10 +5383,10 @@
         <v>-0.15</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="D43" t="n">
         <v>0.043</v>
@@ -5400,16 +5400,16 @@
         <v>-0.3</v>
       </c>
       <c r="B44" t="n">
-        <v>0.672</v>
+        <v>0.67</v>
       </c>
       <c r="C44" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="D44" t="n">
-        <v>0.155</v>
+        <v>0.154</v>
       </c>
       <c r="E44" t="n">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="45">
@@ -5417,16 +5417,16 @@
         <v>-0.45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.823</v>
+        <v>0.822</v>
       </c>
       <c r="C45" t="n">
-        <v>0.537</v>
+        <v>0.535</v>
       </c>
       <c r="D45" t="n">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="E45" t="n">
-        <v>0.157</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="46">
@@ -5437,13 +5437,13 @@
         <v>0.893</v>
       </c>
       <c r="C46" t="n">
-        <v>0.676</v>
+        <v>0.674</v>
       </c>
       <c r="D46" t="n">
-        <v>0.429</v>
+        <v>0.427</v>
       </c>
       <c r="E46" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="47">
@@ -5451,16 +5451,16 @@
         <v>-0.75</v>
       </c>
       <c r="B47" t="n">
-        <v>0.93</v>
+        <v>0.929</v>
       </c>
       <c r="C47" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="D47" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="E47" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="48">
@@ -5471,13 +5471,13 @@
         <v>0.95</v>
       </c>
       <c r="C48" t="n">
-        <v>0.827</v>
+        <v>0.826</v>
       </c>
       <c r="D48" t="n">
-        <v>0.632</v>
+        <v>0.63</v>
       </c>
       <c r="E48" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="49">
@@ -5491,10 +5491,10 @@
         <v>0.867</v>
       </c>
       <c r="D49" t="n">
-        <v>0.702</v>
+        <v>0.7</v>
       </c>
       <c r="E49" t="n">
-        <v>0.511</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="50">
@@ -5505,13 +5505,13 @@
         <v>0.972</v>
       </c>
       <c r="C50" t="n">
-        <v>0.896</v>
+        <v>0.895</v>
       </c>
       <c r="D50" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="E50" t="n">
-        <v>0.579</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="51">
@@ -5525,10 +5525,10 @@
         <v>0.916</v>
       </c>
       <c r="D51" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="E51" t="n">
-        <v>0.636</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="52">
@@ -5542,10 +5542,10 @@
         <v>0.931</v>
       </c>
       <c r="D52" t="n">
-        <v>0.83</v>
+        <v>0.829</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -5556,13 +5556,13 @@
         <v>0.985</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.856</v>
+        <v>0.855</v>
       </c>
       <c r="E53" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="54">
@@ -5573,13 +5573,13 @@
         <v>0.987</v>
       </c>
       <c r="C54" t="n">
-        <v>0.952</v>
+        <v>0.951</v>
       </c>
       <c r="D54" t="n">
         <v>0.876</v>
       </c>
       <c r="E54" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="55">
@@ -5590,13 +5590,13 @@
         <v>0.989</v>
       </c>
       <c r="C55" t="n">
-        <v>0.959</v>
+        <v>0.958</v>
       </c>
       <c r="D55" t="n">
-        <v>0.893</v>
+        <v>0.892</v>
       </c>
       <c r="E55" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="56">
@@ -5610,10 +5610,10 @@
         <v>0.964</v>
       </c>
       <c r="D56" t="n">
-        <v>0.907</v>
+        <v>0.906</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -5630,7 +5630,7 @@
         <v>0.918</v>
       </c>
       <c r="E57" t="n">
-        <v>0.833</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="58">
@@ -5641,13 +5641,13 @@
         <v>0.993</v>
       </c>
       <c r="C58" t="n">
-        <v>0.973</v>
+        <v>0.972</v>
       </c>
       <c r="D58" t="n">
         <v>0.927</v>
       </c>
       <c r="E58" t="n">
-        <v>0.85</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="59">
@@ -5664,7 +5664,7 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.865</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="60">
@@ -5692,13 +5692,13 @@
         <v>0.995</v>
       </c>
       <c r="C61" t="n">
-        <v>0.981</v>
+        <v>0.98</v>
       </c>
       <c r="D61" t="n">
-        <v>0.948</v>
+        <v>0.947</v>
       </c>
       <c r="E61" t="n">
-        <v>0.89</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="62">
@@ -5712,7 +5712,7 @@
         <v>0.982</v>
       </c>
       <c r="D62" t="n">
-        <v>0.953</v>
+        <v>0.952</v>
       </c>
       <c r="E62" t="n">
         <v>0.899</v>
@@ -5746,10 +5746,10 @@
         <v>0.985</v>
       </c>
       <c r="D64" t="n">
-        <v>0.961</v>
+        <v>0.96</v>
       </c>
       <c r="E64" t="n">
-        <v>0.916</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="65">
@@ -5800,7 +5800,7 @@
         <v>0.969</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -5834,7 +5834,7 @@
         <v>0.974</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -5848,10 +5848,10 @@
         <v>0.991</v>
       </c>
       <c r="D70" t="n">
-        <v>0.976</v>
+        <v>0.975</v>
       </c>
       <c r="E70" t="n">
-        <v>0.947</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="71">
@@ -6021,7 +6021,7 @@
         <v>0.987</v>
       </c>
       <c r="E80" t="n">
-        <v>0.971</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="81">

--- a/results/example_data/best_fit.xlsx
+++ b/results/example_data/best_fit.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="nls" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mean" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="median" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mode" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1853,12 +1855,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>3 μT</t>
+          <t>3.0 μT</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>5 μT</t>
+          <t>5.0 μT</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1881,7 +1883,7 @@
         <v>0.982</v>
       </c>
       <c r="E2" t="n">
-        <v>0.961</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -1915,7 +1917,7 @@
         <v>0.978</v>
       </c>
       <c r="E4" t="n">
-        <v>0.954</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="5">
@@ -1960,13 +1962,13 @@
         <v>0.997</v>
       </c>
       <c r="C7" t="n">
-        <v>0.989</v>
+        <v>0.988</v>
       </c>
       <c r="D7" t="n">
         <v>0.97</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.9370000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -1980,10 +1982,10 @@
         <v>0.987</v>
       </c>
       <c r="D8" t="n">
-        <v>0.966</v>
+        <v>0.965</v>
       </c>
       <c r="E8" t="n">
-        <v>0.931</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9">
@@ -1997,10 +1999,10 @@
         <v>0.985</v>
       </c>
       <c r="D9" t="n">
-        <v>0.961</v>
+        <v>0.96</v>
       </c>
       <c r="E9" t="n">
-        <v>0.922</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="10">
@@ -2014,10 +2016,10 @@
         <v>0.982</v>
       </c>
       <c r="D10" t="n">
-        <v>0.954</v>
+        <v>0.953</v>
       </c>
       <c r="E10" t="n">
-        <v>0.912</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="11">
@@ -2028,13 +2030,13 @@
         <v>0.994</v>
       </c>
       <c r="C11" t="n">
-        <v>0.978</v>
+        <v>0.977</v>
       </c>
       <c r="D11" t="n">
-        <v>0.946</v>
+        <v>0.945</v>
       </c>
       <c r="E11" t="n">
-        <v>0.899</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="12">
@@ -2048,10 +2050,10 @@
         <v>0.972</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.883</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="13">
@@ -2062,13 +2064,13 @@
         <v>0.99</v>
       </c>
       <c r="C13" t="n">
-        <v>0.964</v>
+        <v>0.963</v>
       </c>
       <c r="D13" t="n">
-        <v>0.92</v>
+        <v>0.918</v>
       </c>
       <c r="E13" t="n">
-        <v>0.865</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="14">
@@ -2076,16 +2078,16 @@
         <v>4.2</v>
       </c>
       <c r="B14" t="n">
-        <v>0.986</v>
+        <v>0.985</v>
       </c>
       <c r="C14" t="n">
-        <v>0.952</v>
+        <v>0.95</v>
       </c>
       <c r="D14" t="n">
-        <v>0.899</v>
+        <v>0.897</v>
       </c>
       <c r="E14" t="n">
-        <v>0.843</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="15">
@@ -2093,16 +2095,16 @@
         <v>4.05</v>
       </c>
       <c r="B15" t="n">
-        <v>0.978</v>
+        <v>0.977</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="D15" t="n">
-        <v>0.873</v>
+        <v>0.87</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -2110,16 +2112,16 @@
         <v>3.9</v>
       </c>
       <c r="B16" t="n">
-        <v>0.963</v>
+        <v>0.961</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9</v>
+        <v>0.897</v>
       </c>
       <c r="D16" t="n">
-        <v>0.84</v>
+        <v>0.836</v>
       </c>
       <c r="E16" t="n">
-        <v>0.791</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="17">
@@ -2127,16 +2129,16 @@
         <v>3.75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.928</v>
+        <v>0.925</v>
       </c>
       <c r="C17" t="n">
-        <v>0.853</v>
+        <v>0.849</v>
       </c>
       <c r="D17" t="n">
-        <v>0.803</v>
+        <v>0.798</v>
       </c>
       <c r="E17" t="n">
-        <v>0.764</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="18">
@@ -2144,16 +2146,16 @@
         <v>3.6</v>
       </c>
       <c r="B18" t="n">
-        <v>0.859</v>
+        <v>0.854</v>
       </c>
       <c r="C18" t="n">
-        <v>0.801</v>
+        <v>0.795</v>
       </c>
       <c r="D18" t="n">
-        <v>0.771</v>
+        <v>0.766</v>
       </c>
       <c r="E18" t="n">
-        <v>0.742</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="19">
@@ -2161,16 +2163,16 @@
         <v>3.45</v>
       </c>
       <c r="B19" t="n">
-        <v>0.83</v>
+        <v>0.823</v>
       </c>
       <c r="C19" t="n">
-        <v>0.781</v>
+        <v>0.774</v>
       </c>
       <c r="D19" t="n">
-        <v>0.755</v>
+        <v>0.749</v>
       </c>
       <c r="E19" t="n">
-        <v>0.726</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="20">
@@ -2178,16 +2180,16 @@
         <v>3.3</v>
       </c>
       <c r="B20" t="n">
-        <v>0.892</v>
+        <v>0.888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.801</v>
       </c>
       <c r="D20" t="n">
-        <v>0.758</v>
+        <v>0.752</v>
       </c>
       <c r="E20" t="n">
-        <v>0.718</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="21">
@@ -2195,16 +2197,16 @@
         <v>3.15</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.847</v>
+        <v>0.843</v>
       </c>
       <c r="D21" t="n">
-        <v>0.773</v>
+        <v>0.768</v>
       </c>
       <c r="E21" t="n">
-        <v>0.716</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="22">
@@ -2212,16 +2214,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="n">
-        <v>0.959</v>
+        <v>0.957</v>
       </c>
       <c r="C22" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="D22" t="n">
-        <v>0.793</v>
+        <v>0.788</v>
       </c>
       <c r="E22" t="n">
-        <v>0.719</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="23">
@@ -2229,16 +2231,16 @@
         <v>2.85</v>
       </c>
       <c r="B23" t="n">
-        <v>0.97</v>
+        <v>0.969</v>
       </c>
       <c r="C23" t="n">
-        <v>0.902</v>
+        <v>0.899</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="E23" t="n">
-        <v>0.723</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="24">
@@ -2246,16 +2248,16 @@
         <v>2.7</v>
       </c>
       <c r="B24" t="n">
-        <v>0.976</v>
+        <v>0.975</v>
       </c>
       <c r="C24" t="n">
-        <v>0.916</v>
+        <v>0.914</v>
       </c>
       <c r="D24" t="n">
-        <v>0.825</v>
+        <v>0.82</v>
       </c>
       <c r="E24" t="n">
-        <v>0.725</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="25">
@@ -2263,16 +2265,16 @@
         <v>2.55</v>
       </c>
       <c r="B25" t="n">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
       <c r="C25" t="n">
-        <v>0.925</v>
+        <v>0.922</v>
       </c>
       <c r="D25" t="n">
-        <v>0.833</v>
+        <v>0.829</v>
       </c>
       <c r="E25" t="n">
-        <v>0.726</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="26">
@@ -2283,13 +2285,13 @@
         <v>0.98</v>
       </c>
       <c r="C26" t="n">
-        <v>0.929</v>
+        <v>0.927</v>
       </c>
       <c r="D26" t="n">
-        <v>0.837</v>
+        <v>0.834</v>
       </c>
       <c r="E26" t="n">
-        <v>0.723</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="27">
@@ -2300,13 +2302,13 @@
         <v>0.981</v>
       </c>
       <c r="C27" t="n">
-        <v>0.931</v>
+        <v>0.929</v>
       </c>
       <c r="D27" t="n">
-        <v>0.837</v>
+        <v>0.834</v>
       </c>
       <c r="E27" t="n">
-        <v>0.717</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="28">
@@ -2317,13 +2319,13 @@
         <v>0.981</v>
       </c>
       <c r="C28" t="n">
-        <v>0.93</v>
+        <v>0.928</v>
       </c>
       <c r="D28" t="n">
-        <v>0.833</v>
+        <v>0.83</v>
       </c>
       <c r="E28" t="n">
-        <v>0.706</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="29">
@@ -2334,13 +2336,13 @@
         <v>0.98</v>
       </c>
       <c r="C29" t="n">
-        <v>0.927</v>
+        <v>0.926</v>
       </c>
       <c r="D29" t="n">
-        <v>0.826</v>
+        <v>0.822</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -2351,13 +2353,13 @@
         <v>0.979</v>
       </c>
       <c r="C30" t="n">
-        <v>0.922</v>
+        <v>0.92</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.669</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="31">
@@ -2368,13 +2370,13 @@
         <v>0.977</v>
       </c>
       <c r="C31" t="n">
-        <v>0.914</v>
+        <v>0.913</v>
       </c>
       <c r="D31" t="n">
-        <v>0.797</v>
+        <v>0.793</v>
       </c>
       <c r="E31" t="n">
-        <v>0.643</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="32">
@@ -2382,16 +2384,16 @@
         <v>1.5</v>
       </c>
       <c r="B32" t="n">
-        <v>0.974</v>
+        <v>0.973</v>
       </c>
       <c r="C32" t="n">
-        <v>0.904</v>
+        <v>0.902</v>
       </c>
       <c r="D32" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="E32" t="n">
-        <v>0.609</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="33">
@@ -2399,16 +2401,16 @@
         <v>1.35</v>
       </c>
       <c r="B33" t="n">
-        <v>0.97</v>
+        <v>0.969</v>
       </c>
       <c r="C33" t="n">
-        <v>0.889</v>
+        <v>0.887</v>
       </c>
       <c r="D33" t="n">
-        <v>0.744</v>
+        <v>0.741</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -2416,16 +2418,16 @@
         <v>1.2</v>
       </c>
       <c r="B34" t="n">
-        <v>0.964</v>
+        <v>0.963</v>
       </c>
       <c r="C34" t="n">
-        <v>0.869</v>
+        <v>0.867</v>
       </c>
       <c r="D34" t="n">
-        <v>0.705</v>
+        <v>0.702</v>
       </c>
       <c r="E34" t="n">
-        <v>0.519</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="35">
@@ -2433,16 +2435,16 @@
         <v>1.05</v>
       </c>
       <c r="B35" t="n">
-        <v>0.955</v>
+        <v>0.954</v>
       </c>
       <c r="C35" t="n">
-        <v>0.84</v>
+        <v>0.838</v>
       </c>
       <c r="D35" t="n">
-        <v>0.655</v>
+        <v>0.652</v>
       </c>
       <c r="E35" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="36">
@@ -2450,16 +2452,16 @@
         <v>0.9</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="D36" t="n">
-        <v>0.59</v>
+        <v>0.586</v>
       </c>
       <c r="E36" t="n">
-        <v>0.391</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="37">
@@ -2467,16 +2469,16 @@
         <v>0.75</v>
       </c>
       <c r="B37" t="n">
-        <v>0.919</v>
+        <v>0.918</v>
       </c>
       <c r="C37" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="D37" t="n">
-        <v>0.506</v>
+        <v>0.502</v>
       </c>
       <c r="E37" t="n">
-        <v>0.314</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="38">
@@ -2484,16 +2486,16 @@
         <v>0.6</v>
       </c>
       <c r="B38" t="n">
-        <v>0.882</v>
+        <v>0.88</v>
       </c>
       <c r="C38" t="n">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="D38" t="n">
-        <v>0.401</v>
+        <v>0.398</v>
       </c>
       <c r="E38" t="n">
-        <v>0.23</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="39">
@@ -2501,16 +2503,16 @@
         <v>0.45</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.516</v>
+        <v>0.513</v>
       </c>
       <c r="D39" t="n">
-        <v>0.277</v>
+        <v>0.275</v>
       </c>
       <c r="E39" t="n">
-        <v>0.146</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="40">
@@ -2518,13 +2520,13 @@
         <v>0.3</v>
       </c>
       <c r="B40" t="n">
-        <v>0.659</v>
+        <v>0.657</v>
       </c>
       <c r="C40" t="n">
-        <v>0.325</v>
+        <v>0.322</v>
       </c>
       <c r="D40" t="n">
-        <v>0.147</v>
+        <v>0.146</v>
       </c>
       <c r="E40" t="n">
         <v>0.07099999999999999</v>
@@ -2535,10 +2537,10 @@
         <v>0.15</v>
       </c>
       <c r="B41" t="n">
-        <v>0.328</v>
+        <v>0.326</v>
       </c>
       <c r="C41" t="n">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
       <c r="D41" t="n">
         <v>0.042</v>
@@ -2569,13 +2571,13 @@
         <v>-0.15</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335</v>
+        <v>0.332</v>
       </c>
       <c r="C43" t="n">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="D43" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="E43" t="n">
         <v>0.02</v>
@@ -2586,16 +2588,16 @@
         <v>-0.3</v>
       </c>
       <c r="B44" t="n">
-        <v>0.672</v>
+        <v>0.669</v>
       </c>
       <c r="C44" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="D44" t="n">
-        <v>0.155</v>
+        <v>0.154</v>
       </c>
       <c r="E44" t="n">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="45">
@@ -2603,16 +2605,16 @@
         <v>-0.45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.823</v>
+        <v>0.822</v>
       </c>
       <c r="C45" t="n">
-        <v>0.537</v>
+        <v>0.535</v>
       </c>
       <c r="D45" t="n">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="E45" t="n">
-        <v>0.157</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="46">
@@ -2620,16 +2622,16 @@
         <v>-0.6</v>
       </c>
       <c r="B46" t="n">
-        <v>0.893</v>
+        <v>0.892</v>
       </c>
       <c r="C46" t="n">
-        <v>0.676</v>
+        <v>0.674</v>
       </c>
       <c r="D46" t="n">
-        <v>0.429</v>
+        <v>0.426</v>
       </c>
       <c r="E46" t="n">
-        <v>0.25</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="47">
@@ -2640,13 +2642,13 @@
         <v>0.929</v>
       </c>
       <c r="C47" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="D47" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="E47" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="48">
@@ -2657,13 +2659,13 @@
         <v>0.95</v>
       </c>
       <c r="C48" t="n">
-        <v>0.827</v>
+        <v>0.826</v>
       </c>
       <c r="D48" t="n">
-        <v>0.632</v>
+        <v>0.63</v>
       </c>
       <c r="E48" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="49">
@@ -2677,10 +2679,10 @@
         <v>0.867</v>
       </c>
       <c r="D49" t="n">
-        <v>0.702</v>
+        <v>0.7</v>
       </c>
       <c r="E49" t="n">
-        <v>0.511</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="50">
@@ -2691,13 +2693,13 @@
         <v>0.972</v>
       </c>
       <c r="C50" t="n">
-        <v>0.896</v>
+        <v>0.895</v>
       </c>
       <c r="D50" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="E50" t="n">
-        <v>0.579</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="51">
@@ -2711,10 +2713,10 @@
         <v>0.916</v>
       </c>
       <c r="D51" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="E51" t="n">
-        <v>0.636</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="52">
@@ -2728,10 +2730,10 @@
         <v>0.931</v>
       </c>
       <c r="D52" t="n">
-        <v>0.83</v>
+        <v>0.829</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -2742,13 +2744,13 @@
         <v>0.985</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.856</v>
+        <v>0.855</v>
       </c>
       <c r="E53" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="54">
@@ -2759,13 +2761,13 @@
         <v>0.987</v>
       </c>
       <c r="C54" t="n">
-        <v>0.952</v>
+        <v>0.951</v>
       </c>
       <c r="D54" t="n">
         <v>0.876</v>
       </c>
       <c r="E54" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="55">
@@ -2776,13 +2778,13 @@
         <v>0.989</v>
       </c>
       <c r="C55" t="n">
-        <v>0.959</v>
+        <v>0.958</v>
       </c>
       <c r="D55" t="n">
         <v>0.893</v>
       </c>
       <c r="E55" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="56">
@@ -2796,10 +2798,10 @@
         <v>0.964</v>
       </c>
       <c r="D56" t="n">
-        <v>0.907</v>
+        <v>0.906</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -2816,7 +2818,7 @@
         <v>0.918</v>
       </c>
       <c r="E57" t="n">
-        <v>0.833</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="58">
@@ -2827,13 +2829,13 @@
         <v>0.993</v>
       </c>
       <c r="C58" t="n">
-        <v>0.973</v>
+        <v>0.972</v>
       </c>
       <c r="D58" t="n">
         <v>0.927</v>
       </c>
       <c r="E58" t="n">
-        <v>0.85</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="59">
@@ -2878,13 +2880,13 @@
         <v>0.995</v>
       </c>
       <c r="C61" t="n">
-        <v>0.981</v>
+        <v>0.98</v>
       </c>
       <c r="D61" t="n">
-        <v>0.948</v>
+        <v>0.947</v>
       </c>
       <c r="E61" t="n">
-        <v>0.89</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="62">
@@ -2898,10 +2900,10 @@
         <v>0.982</v>
       </c>
       <c r="D62" t="n">
-        <v>0.953</v>
+        <v>0.952</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="63">
@@ -2930,6 +2932,2818 @@
       </c>
       <c r="C64" t="n">
         <v>0.985</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.915</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-3.45</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.928</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.946</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-4.35</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.953</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-4.65</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.956</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.961</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.965</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.967</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-5.55</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.969</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-5.85</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.972</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ppm</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1.5 μT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>3.0 μT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>5.0 μT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>7.5 μT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.961</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.958</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.954</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.931</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.923</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.912</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.884</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.866</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.844</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.819</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.792</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.765</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.726</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.718</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.717</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.719</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.723</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.726</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.726</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.723</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.716</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.705</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.669</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.642</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.391</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.229</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.578</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.635</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.724</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.758</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.832</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.865</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.889</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.899</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.916</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-3.45</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.928</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.947</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-4.35</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.953</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-4.65</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.956</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.961</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.965</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.967</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-5.55</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.969</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-5.85</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.972</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ppm</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1.5 μT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>3.0 μT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>5.0 μT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>7.5 μT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.962</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.951</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.946</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.915</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.903</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.888</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.849</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.799</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.774</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.736</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.728</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.726</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.728</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.731</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.733</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.733</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.723</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.711</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.695</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.674</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.613</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.522</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.463</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.231</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.511</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.579</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.636</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.725</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.759</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.788</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.865</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.986</v>
       </c>
       <c r="D64" t="n">
         <v>0.961</v>
